--- a/SPPSApi/Doc/Template/FS0629_reportData.xlsx
+++ b/SPPSApi/Doc/Template/FS0629_reportData.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">data!$A$1:$R$24</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>1)纳入/出荷统计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,7 +413,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -1004,57 +1004,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1433,7 +1433,7 @@
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="3.58203125" style="2" customWidth="1"/>
@@ -1449,19 +1449,19 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29" customHeight="1">
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50"/>
+    <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="53"/>
     </row>
-    <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1">
+    <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -1471,8 +1471,8 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
@@ -1485,17 +1485,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="39.75" customHeight="1">
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="39" t="s">
         <v>3</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="25.5" customHeight="1">
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1555,7 +1555,7 @@
       <c r="P4" s="23"/>
       <c r="Q4" s="42"/>
     </row>
-    <row r="5" spans="1:20" ht="21.75" customHeight="1">
+    <row r="5" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1573,7 +1573,7 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="15.5" thickBot="1">
+    <row r="6" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
@@ -1593,21 +1593,21 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="30.5" customHeight="1">
+    <row r="7" spans="1:20" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="31" t="s">
         <v>23</v>
       </c>
@@ -1617,112 +1617,112 @@
       <c r="I7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
       <c r="M7" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="O7" s="55"/>
-      <c r="P7" s="56"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
       <c r="Q7" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="22.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="35"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="47"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="50"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="47"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="50"/>
       <c r="Q8" s="36"/>
     </row>
-    <row r="9" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="10" spans="1:20" ht="22.5" customHeight="1">
+    <row r="9" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="12" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="13" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="14" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="15" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="16" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1">
+    <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1">
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
     </row>
-    <row r="22" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="23" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="24" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="25" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="26" spans="2:7" ht="22.5" customHeight="1">
+    <row r="22" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
     </row>
-    <row r="27" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="28" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="29" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="30" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="31" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="32" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="33" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="34" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="35" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="36" spans="2:17" ht="22.5" customHeight="1">
+    <row r="27" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
     </row>
-    <row r="37" spans="2:17" ht="22.5" customHeight="1">
+    <row r="37" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19"/>
     </row>
-    <row r="38" spans="2:17" ht="22.5" customHeight="1">
+    <row r="38" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="9"/>
     </row>
-    <row r="39" spans="2:17" ht="22.5" customHeight="1">
+    <row r="39" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q39" s="9"/>
     </row>
-    <row r="40" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="41" spans="2:17" ht="22.5" customHeight="1">
+    <row r="40" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="43" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="44" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="45" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="46" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="47" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="48" spans="2:17" ht="22.5" customHeight="1">
+    <row r="42" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="16:17" ht="22.5" customHeight="1">
+    <row r="49" spans="16:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="16:17" ht="22.5" customHeight="1">
+    <row r="50" spans="16:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q50" s="11"/>
     </row>
-    <row r="62" spans="16:17">
+    <row r="62" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P62" s="11" t="s">
         <v>15</v>
       </c>
@@ -1753,568 +1753,579 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DI2"/>
+  <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="DG1" sqref="DG1:DG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="64" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" style="64" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="64"/>
-    <col min="4" max="4" width="25.6640625" style="64" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="64" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" style="64"/>
-    <col min="8" max="8" width="10.9140625" style="64" customWidth="1"/>
-    <col min="9" max="9" width="12.4140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="64" customWidth="1"/>
-    <col min="11" max="104" width="8.6640625" style="64"/>
-    <col min="105" max="107" width="10.4140625" style="64" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.6640625" style="64"/>
-    <col min="109" max="109" width="17.6640625" style="64" customWidth="1"/>
-    <col min="110" max="110" width="10.6640625" style="64" customWidth="1"/>
-    <col min="111" max="111" width="10.33203125" style="64" customWidth="1"/>
-    <col min="112" max="112" width="16.75" style="64" customWidth="1"/>
-    <col min="113" max="113" width="13.83203125" style="64" customWidth="1"/>
-    <col min="114" max="16384" width="8.6640625" style="62"/>
+    <col min="1" max="1" width="13.5" style="48" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="48"/>
+    <col min="4" max="4" width="25.6640625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="48" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="48"/>
+    <col min="8" max="8" width="10.9140625" style="48" customWidth="1"/>
+    <col min="9" max="9" width="12.4140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="48" customWidth="1"/>
+    <col min="11" max="104" width="8.6640625" style="48"/>
+    <col min="105" max="107" width="10.4140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.6640625" style="48"/>
+    <col min="109" max="109" width="17.6640625" style="48" customWidth="1"/>
+    <col min="110" max="110" width="10.6640625" style="48" customWidth="1"/>
+    <col min="111" max="111" width="16.75" style="48" customWidth="1"/>
+    <col min="112" max="112" width="13.83203125" style="48" customWidth="1"/>
+    <col min="113" max="16384" width="8.6640625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61" t="s">
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61" t="s">
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61" t="s">
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61" t="s">
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="61"/>
-      <c r="AC1" s="61"/>
-      <c r="AD1" s="61" t="s">
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="61"/>
-      <c r="AG1" s="61" t="s">
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="61" t="s">
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="AK1" s="61"/>
-      <c r="AL1" s="61"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="61"/>
-      <c r="AO1" s="61"/>
-      <c r="AP1" s="61" t="s">
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="61"/>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61" t="s">
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61" t="s">
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61" t="s">
+      <c r="AW1" s="64"/>
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61" t="s">
+      <c r="AZ1" s="64"/>
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61" t="s">
+      <c r="BC1" s="64"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61" t="s">
+      <c r="BF1" s="64"/>
+      <c r="BG1" s="64"/>
+      <c r="BH1" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61" t="s">
+      <c r="BI1" s="64"/>
+      <c r="BJ1" s="64"/>
+      <c r="BK1" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61" t="s">
+      <c r="BL1" s="64"/>
+      <c r="BM1" s="64"/>
+      <c r="BN1" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61" t="s">
+      <c r="BO1" s="64"/>
+      <c r="BP1" s="64"/>
+      <c r="BQ1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="BR1" s="61"/>
-      <c r="BS1" s="61"/>
-      <c r="BT1" s="61" t="s">
+      <c r="BR1" s="64"/>
+      <c r="BS1" s="64"/>
+      <c r="BT1" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="BU1" s="61"/>
-      <c r="BV1" s="61"/>
-      <c r="BW1" s="61" t="s">
+      <c r="BU1" s="64"/>
+      <c r="BV1" s="64"/>
+      <c r="BW1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="BX1" s="61"/>
-      <c r="BY1" s="61"/>
-      <c r="BZ1" s="61" t="s">
+      <c r="BX1" s="64"/>
+      <c r="BY1" s="64"/>
+      <c r="BZ1" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="CA1" s="61"/>
-      <c r="CB1" s="61"/>
-      <c r="CC1" s="61" t="s">
+      <c r="CA1" s="64"/>
+      <c r="CB1" s="64"/>
+      <c r="CC1" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="CD1" s="61"/>
-      <c r="CE1" s="61"/>
-      <c r="CF1" s="61" t="s">
+      <c r="CD1" s="64"/>
+      <c r="CE1" s="64"/>
+      <c r="CF1" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="CG1" s="61"/>
-      <c r="CH1" s="61"/>
-      <c r="CI1" s="61" t="s">
+      <c r="CG1" s="64"/>
+      <c r="CH1" s="64"/>
+      <c r="CI1" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="CJ1" s="61"/>
-      <c r="CK1" s="61"/>
-      <c r="CL1" s="61" t="s">
+      <c r="CJ1" s="64"/>
+      <c r="CK1" s="64"/>
+      <c r="CL1" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="CM1" s="61"/>
-      <c r="CN1" s="61"/>
-      <c r="CO1" s="61" t="s">
+      <c r="CM1" s="64"/>
+      <c r="CN1" s="64"/>
+      <c r="CO1" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="CP1" s="61"/>
-      <c r="CQ1" s="61"/>
-      <c r="CR1" s="61" t="s">
+      <c r="CP1" s="64"/>
+      <c r="CQ1" s="64"/>
+      <c r="CR1" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="CS1" s="61"/>
-      <c r="CT1" s="61"/>
-      <c r="CU1" s="61" t="s">
+      <c r="CS1" s="64"/>
+      <c r="CT1" s="64"/>
+      <c r="CU1" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="CV1" s="61"/>
-      <c r="CW1" s="61"/>
-      <c r="CX1" s="61" t="s">
+      <c r="CV1" s="64"/>
+      <c r="CW1" s="64"/>
+      <c r="CX1" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="CY1" s="61"/>
-      <c r="CZ1" s="61"/>
-      <c r="DA1" s="60" t="s">
+      <c r="CY1" s="64"/>
+      <c r="CZ1" s="64"/>
+      <c r="DA1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="DB1" s="60" t="s">
+      <c r="DB1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="DC1" s="60" t="s">
+      <c r="DC1" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="DD1" s="60" t="s">
+      <c r="DD1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="DE1" s="60" t="s">
+      <c r="DE1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="DF1" s="60" t="s">
+      <c r="DF1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="DG1" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="DH1" s="60" t="s">
+      <c r="DG1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="DI1" s="60" t="s">
+      <c r="DH1" s="63" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:113">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="BO2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="BR2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="BU2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CA2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CC2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CD2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CL2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CM2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CO2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CP2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CQ2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CR2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CS2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CU2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CV2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="CX2" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="CY2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="CZ2" s="63" t="s">
-        <v>84</v>
-      </c>
-      <c r="DA2" s="60"/>
-      <c r="DB2" s="60"/>
-      <c r="DC2" s="60"/>
-      <c r="DD2" s="60"/>
-      <c r="DE2" s="60"/>
-      <c r="DF2" s="60"/>
-      <c r="DG2" s="60"/>
-      <c r="DH2" s="60"/>
-      <c r="DI2" s="60"/>
+    <row r="2" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BF2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BU2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BV2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BW2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="BX2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="BY2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="BZ2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CA2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CB2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="CC2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CD2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CE2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CJ2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CK2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="CL2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CM2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CN2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="CO2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CP2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CQ2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="CR2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CS2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CT2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="CU2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CV2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CW2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="CX2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="CY2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="CZ2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="DA2" s="63"/>
+      <c r="DB2" s="63"/>
+      <c r="DC2" s="63"/>
+      <c r="DD2" s="63"/>
+      <c r="DE2" s="63"/>
+      <c r="DF2" s="63"/>
+      <c r="DG2" s="63"/>
+      <c r="DH2" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="DG1:DG2"/>
-    <mergeCell ref="DH1:DH2"/>
-    <mergeCell ref="DI1:DI2"/>
-    <mergeCell ref="DA1:DA2"/>
-    <mergeCell ref="DB1:DB2"/>
-    <mergeCell ref="DC1:DC2"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
+  <mergeCells count="50">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="CX1:CZ1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
@@ -2322,36 +2333,19 @@
     <mergeCell ref="BZ1:CB1"/>
     <mergeCell ref="CC1:CE1"/>
     <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="DG1:DG2"/>
+    <mergeCell ref="DH1:DH2"/>
+    <mergeCell ref="DA1:DA2"/>
+    <mergeCell ref="DB1:DB2"/>
+    <mergeCell ref="DC1:DC2"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0629_reportData.xlsx
+++ b/SPPSApi/Doc/Template/FS0629_reportData.xlsx
@@ -11,9 +11,9 @@
     <sheet name="orderData" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">data!$A$1:$R$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">data!$A$1:$R$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,12 +2296,38 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="DG1:DG2"/>
+    <mergeCell ref="DH1:DH2"/>
+    <mergeCell ref="DA1:DA2"/>
+    <mergeCell ref="DB1:DB2"/>
+    <mergeCell ref="DC1:DC2"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2314,38 +2340,12 @@
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="DG1:DG2"/>
-    <mergeCell ref="DH1:DH2"/>
-    <mergeCell ref="DA1:DA2"/>
-    <mergeCell ref="DB1:DB2"/>
-    <mergeCell ref="DC1:DC2"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0629_reportData.xlsx
+++ b/SPPSApi/Doc/Template/FS0629_reportData.xlsx
@@ -20,10 +20,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
-    <t>1)纳入/出荷统计：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,10 +75,6 @@
   <si>
     <t>紧急订单
 出荷实绩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2)纳入/出荷欠品说明：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,22 +102,6 @@
   </si>
   <si>
     <t>一时对策&amp;再发防止对策</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>区分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商代码+工区</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -408,12 +384,35 @@
     <t>发货数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>收货方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商代码+工区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)纳入/出荷统计：</t>
+  </si>
+  <si>
+    <t>2)纳入/出荷欠品说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -520,12 +519,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,12 +526,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,8 +541,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -718,21 +717,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -901,8 +885,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -914,11 +896,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,13 +905,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -948,42 +927,23 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,28 +952,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1022,37 +1004,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1065,8 +1047,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFF99"/>
       <color rgb="FFABF1F5"/>
-      <color rgb="FFCCFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1429,27 +1412,21 @@
   </sheetPr>
   <dimension ref="A1:T62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="3.58203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="5" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
-    <col min="8" max="11" width="8.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
-    <col min="13" max="16" width="8.5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="5.83203125" style="2" customWidth="1"/>
+    <col min="5" max="17" width="10.58203125" style="2" customWidth="1"/>
     <col min="18" max="18" width="1.25" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" ht="29" customHeight="1">
+      <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
@@ -1457,108 +1434,109 @@
       <c r="F1" s="62"/>
       <c r="G1" s="62"/>
       <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="I1" s="48"/>
       <c r="P1" s="52"/>
       <c r="Q1" s="53"/>
     </row>
-    <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+    <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1">
+      <c r="A2" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
       <c r="I2" s="60"/>
       <c r="J2" s="60"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="38" t="s">
-        <v>30</v>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="25" t="s">
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="61"/>
+      <c r="E3" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="H3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="L3" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="18" t="s">
+      <c r="P3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="43" t="s">
-        <v>31</v>
+      <c r="Q3" s="33" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="42"/>
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="33.5" customHeight="1">
+      <c r="A4" s="35"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="32"/>
     </row>
-    <row r="5" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
+    <row r="5" spans="1:20" ht="21.75" customHeight="1">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1573,13 +1551,14 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+    <row r="6" spans="1:20" ht="15.5" thickBot="1">
+      <c r="A6" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1593,138 +1572,138 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:20" ht="30.5" customHeight="1">
+      <c r="A7" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="57"/>
+      <c r="G7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="J7" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="30" t="s">
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="59"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="58"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="33" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="8" spans="1:20" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
+    <row r="8" spans="1:20" ht="34" customHeight="1" thickBot="1">
+      <c r="A8" s="24"/>
       <c r="B8" s="49"/>
       <c r="C8" s="50"/>
-      <c r="D8" s="35"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="49"/>
       <c r="F8" s="50"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="49"/>
       <c r="K8" s="51"/>
       <c r="L8" s="50"/>
-      <c r="M8" s="35"/>
+      <c r="M8" s="25"/>
       <c r="N8" s="49"/>
       <c r="O8" s="51"/>
       <c r="P8" s="50"/>
-      <c r="Q8" s="36"/>
+      <c r="Q8" s="26"/>
     </row>
-    <row r="9" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="10" spans="1:20" ht="22.5" customHeight="1">
       <c r="T10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+    <row r="11" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="12" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="13" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="14" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="15" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="16" spans="1:20" ht="22.5" customHeight="1"/>
+    <row r="17" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="18" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="19" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="20" spans="2:7" ht="22.5" customHeight="1">
+      <c r="B20" s="23"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+    <row r="21" spans="2:7" ht="22.5" customHeight="1">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
+    <row r="22" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="23" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="24" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="25" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="26" spans="2:7" ht="22.5" customHeight="1">
+      <c r="B26" s="17"/>
     </row>
-    <row r="27" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
+    <row r="27" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="28" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="29" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="30" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="31" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="32" spans="2:7" ht="22.5" customHeight="1"/>
+    <row r="33" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="34" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="35" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="36" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
+    <row r="37" spans="2:17" ht="22.5" customHeight="1">
+      <c r="B37" s="16"/>
     </row>
-    <row r="38" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q38" s="9"/>
+    <row r="38" spans="2:17" ht="22.5" customHeight="1">
+      <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q39" s="9"/>
+    <row r="39" spans="2:17" ht="22.5" customHeight="1">
+      <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="41" spans="2:17" ht="22.5" customHeight="1">
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q48" s="11"/>
+    <row r="42" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="43" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="44" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="45" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="46" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="47" spans="2:17" ht="22.5" customHeight="1"/>
+    <row r="48" spans="2:17" ht="22.5" customHeight="1">
+      <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="16:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q49" s="11"/>
+    <row r="49" spans="16:17" ht="22.5" customHeight="1">
+      <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="16:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q50" s="11"/>
+    <row r="50" spans="16:17" ht="22.5" customHeight="1">
+      <c r="Q50" s="9"/>
     </row>
-    <row r="62" spans="16:17" x14ac:dyDescent="0.25">
-      <c r="P62" s="11" t="s">
-        <v>15</v>
+    <row r="62" spans="16:17">
+      <c r="P62" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1740,12 +1719,12 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="59" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -1759,242 +1738,242 @@
       <selection activeCell="DG1" sqref="DG1:DG1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="48"/>
-    <col min="4" max="4" width="25.6640625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="48" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" style="48"/>
-    <col min="8" max="8" width="10.9140625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="12.4140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="48" customWidth="1"/>
-    <col min="11" max="104" width="8.6640625" style="48"/>
-    <col min="105" max="107" width="10.4140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.6640625" style="48"/>
-    <col min="109" max="109" width="17.6640625" style="48" customWidth="1"/>
-    <col min="110" max="110" width="10.6640625" style="48" customWidth="1"/>
-    <col min="111" max="111" width="16.75" style="48" customWidth="1"/>
-    <col min="112" max="112" width="13.83203125" style="48" customWidth="1"/>
-    <col min="113" max="16384" width="8.6640625" style="46"/>
+    <col min="1" max="1" width="13.5" style="38" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="38"/>
+    <col min="4" max="4" width="25.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="38" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="38"/>
+    <col min="8" max="8" width="10.9140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="12.4140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="38" customWidth="1"/>
+    <col min="11" max="104" width="8.6640625" style="38"/>
+    <col min="105" max="107" width="10.4140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.6640625" style="38"/>
+    <col min="109" max="109" width="17.6640625" style="38" customWidth="1"/>
+    <col min="110" max="110" width="10.6640625" style="38" customWidth="1"/>
+    <col min="111" max="111" width="16.75" style="38" customWidth="1"/>
+    <col min="112" max="112" width="13.83203125" style="38" customWidth="1"/>
+    <col min="113" max="16384" width="8.6640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:112">
       <c r="A1" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="J1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="63" t="s">
+      <c r="K1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="L1" s="64" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>43</v>
       </c>
       <c r="M1" s="64"/>
       <c r="N1" s="64"/>
       <c r="O1" s="64" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="P1" s="64"/>
       <c r="Q1" s="64"/>
       <c r="R1" s="64" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="S1" s="64"/>
       <c r="T1" s="64"/>
       <c r="U1" s="64" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="V1" s="64"/>
       <c r="W1" s="64"/>
       <c r="X1" s="64" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
       <c r="AA1" s="64" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
       <c r="AD1" s="64" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AE1" s="64"/>
       <c r="AF1" s="64"/>
       <c r="AG1" s="64" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AH1" s="64"/>
       <c r="AI1" s="64"/>
       <c r="AJ1" s="64" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AK1" s="64"/>
       <c r="AL1" s="64"/>
       <c r="AM1" s="64" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AN1" s="64"/>
       <c r="AO1" s="64"/>
       <c r="AP1" s="64" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="AQ1" s="64"/>
       <c r="AR1" s="64"/>
       <c r="AS1" s="64" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
       <c r="AV1" s="64" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="AW1" s="64"/>
       <c r="AX1" s="64"/>
       <c r="AY1" s="64" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="64"/>
       <c r="BA1" s="64"/>
       <c r="BB1" s="64" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="BC1" s="64"/>
       <c r="BD1" s="64"/>
       <c r="BE1" s="64" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="BF1" s="64"/>
       <c r="BG1" s="64"/>
       <c r="BH1" s="64" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="BI1" s="64"/>
       <c r="BJ1" s="64"/>
       <c r="BK1" s="64" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="BL1" s="64"/>
       <c r="BM1" s="64"/>
       <c r="BN1" s="64" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="BO1" s="64"/>
       <c r="BP1" s="64"/>
       <c r="BQ1" s="64" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="BR1" s="64"/>
       <c r="BS1" s="64"/>
       <c r="BT1" s="64" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="BU1" s="64"/>
       <c r="BV1" s="64"/>
       <c r="BW1" s="64" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="BX1" s="64"/>
       <c r="BY1" s="64"/>
       <c r="BZ1" s="64" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="CA1" s="64"/>
       <c r="CB1" s="64"/>
       <c r="CC1" s="64" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="CD1" s="64"/>
       <c r="CE1" s="64"/>
       <c r="CF1" s="64" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="CG1" s="64"/>
       <c r="CH1" s="64"/>
       <c r="CI1" s="64" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="CJ1" s="64"/>
       <c r="CK1" s="64"/>
       <c r="CL1" s="64" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="CM1" s="64"/>
       <c r="CN1" s="64"/>
       <c r="CO1" s="64" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="CP1" s="64"/>
       <c r="CQ1" s="64"/>
       <c r="CR1" s="64" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="CS1" s="64"/>
       <c r="CT1" s="64"/>
       <c r="CU1" s="64" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="CV1" s="64"/>
       <c r="CW1" s="64"/>
       <c r="CX1" s="64" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="CY1" s="64"/>
       <c r="CZ1" s="64"/>
       <c r="DA1" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="DB1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="DC1" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="DD1" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="DE1" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="DF1" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="DG1" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="DB1" s="63" t="s">
+      <c r="DH1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="DC1" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="DD1" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="DE1" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="DF1" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="DG1" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="DH1" s="63" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:112">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -2006,284 +1985,284 @@
       <c r="I2" s="63"/>
       <c r="J2" s="63"/>
       <c r="K2" s="63"/>
-      <c r="L2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="N2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="V2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="W2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AP2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AQ2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AT2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AW2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="AZ2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BF2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BG2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BH2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BI2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BL2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BN2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BO2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BP2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BQ2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BR2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BS2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BT2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BU2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BV2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BW2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="BY2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="BZ2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CA2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CB2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="CC2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CD2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CJ2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CK2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="CL2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CM2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CN2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="CO2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CP2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CQ2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="CR2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CS2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CT2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="CU2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CV2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CW2" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="CX2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="CY2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="CZ2" s="47" t="s">
-        <v>84</v>
+      <c r="L2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BD2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BT2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BU2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BW2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CD2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CE2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CG2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CH2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CJ2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CK2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CL2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CM2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CN2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CO2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CP2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CQ2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CR2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CS2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CT2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CU2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CV2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CW2" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX2" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="CY2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="CZ2" s="37" t="s">
+        <v>78</v>
       </c>
       <c r="DA2" s="63"/>
       <c r="DB2" s="63"/>

--- a/SPPSApi/Doc/Template/FS0629_reportData.xlsx
+++ b/SPPSApi/Doc/Template/FS0629_reportData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="1890" windowWidth="8510" windowHeight="2760"/>
@@ -41,10 +41,6 @@
   </si>
   <si>
     <t>出荷率（D/A）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -389,10 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发注工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,6 +397,14 @@
   </si>
   <si>
     <t>2)纳入/出荷欠品说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发注工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1">
       <c r="A2" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -1457,18 +1457,18 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="28" t="s">
         <v>23</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="39.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>0</v>
@@ -1481,28 +1481,28 @@
         <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>12</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>4</v>
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" ht="33.5" customHeight="1">
@@ -1553,7 +1553,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.5" thickBot="1">
       <c r="A6" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="47"/>
@@ -1574,43 +1574,43 @@
     </row>
     <row r="7" spans="1:20" ht="30.5" customHeight="1">
       <c r="A7" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E7" s="56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="I7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="J7" s="58" t="s">
         <v>19</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>20</v>
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
       <c r="M7" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="59"/>
       <c r="P7" s="57"/>
       <c r="Q7" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="34" customHeight="1" thickBot="1">
@@ -1635,7 +1635,7 @@
     <row r="9" spans="1:20" ht="22.5" customHeight="1"/>
     <row r="10" spans="1:20" ht="22.5" customHeight="1">
       <c r="T10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1"/>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="62" spans="16:17">
       <c r="P62" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1761,216 +1761,216 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="D1" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="63" t="s">
+      <c r="F1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="H1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="K1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="L1" s="64" t="s">
         <v>36</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>37</v>
       </c>
       <c r="M1" s="64"/>
       <c r="N1" s="64"/>
       <c r="O1" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P1" s="64"/>
       <c r="Q1" s="64"/>
       <c r="R1" s="64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S1" s="64"/>
       <c r="T1" s="64"/>
       <c r="U1" s="64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V1" s="64"/>
       <c r="W1" s="64"/>
       <c r="X1" s="64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
       <c r="AA1" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
       <c r="AD1" s="64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AE1" s="64"/>
       <c r="AF1" s="64"/>
       <c r="AG1" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AH1" s="64"/>
       <c r="AI1" s="64"/>
       <c r="AJ1" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AK1" s="64"/>
       <c r="AL1" s="64"/>
       <c r="AM1" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AN1" s="64"/>
       <c r="AO1" s="64"/>
       <c r="AP1" s="64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ1" s="64"/>
       <c r="AR1" s="64"/>
       <c r="AS1" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
       <c r="AV1" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AW1" s="64"/>
       <c r="AX1" s="64"/>
       <c r="AY1" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AZ1" s="64"/>
       <c r="BA1" s="64"/>
       <c r="BB1" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BC1" s="64"/>
       <c r="BD1" s="64"/>
       <c r="BE1" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BF1" s="64"/>
       <c r="BG1" s="64"/>
       <c r="BH1" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BI1" s="64"/>
       <c r="BJ1" s="64"/>
       <c r="BK1" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BL1" s="64"/>
       <c r="BM1" s="64"/>
       <c r="BN1" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BO1" s="64"/>
       <c r="BP1" s="64"/>
       <c r="BQ1" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BR1" s="64"/>
       <c r="BS1" s="64"/>
       <c r="BT1" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BU1" s="64"/>
       <c r="BV1" s="64"/>
       <c r="BW1" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BX1" s="64"/>
       <c r="BY1" s="64"/>
       <c r="BZ1" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CA1" s="64"/>
       <c r="CB1" s="64"/>
       <c r="CC1" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CD1" s="64"/>
       <c r="CE1" s="64"/>
       <c r="CF1" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CG1" s="64"/>
       <c r="CH1" s="64"/>
       <c r="CI1" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CJ1" s="64"/>
       <c r="CK1" s="64"/>
       <c r="CL1" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CM1" s="64"/>
       <c r="CN1" s="64"/>
       <c r="CO1" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CP1" s="64"/>
       <c r="CQ1" s="64"/>
       <c r="CR1" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CS1" s="64"/>
       <c r="CT1" s="64"/>
       <c r="CU1" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CV1" s="64"/>
       <c r="CW1" s="64"/>
       <c r="CX1" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CY1" s="64"/>
       <c r="CZ1" s="64"/>
       <c r="DA1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="DB1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="DB1" s="63" t="s">
+      <c r="DC1" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="DC1" s="63" t="s">
+      <c r="DD1" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="DD1" s="63" t="s">
+      <c r="DE1" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="DE1" s="63" t="s">
+      <c r="DF1" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="DF1" s="63" t="s">
+      <c r="DG1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="DG1" s="63" t="s">
+      <c r="DH1" s="63" t="s">
         <v>74</v>
-      </c>
-      <c r="DH1" s="63" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:112">
@@ -1986,283 +1986,283 @@
       <c r="J2" s="63"/>
       <c r="K2" s="63"/>
       <c r="L2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AI2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AK2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AL2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AN2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AO2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AP2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AS2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AT2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AU2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AV2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AW2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AY2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AZ2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BA2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BB2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BC2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BD2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BE2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BF2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BG2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BH2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BI2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BJ2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BK2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BL2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BM2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BN2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BO2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BP2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BQ2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BR2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BS2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BT2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BU2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BV2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BW2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BX2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BY2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BZ2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CA2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CB2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CC2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CD2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CE2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CF2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CG2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CH2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CI2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CJ2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CK2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CL2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CM2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CN2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CO2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CP2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CQ2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CR2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CS2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CT2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CU2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CV2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CW2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CX2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CY2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CZ2" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="DA2" s="63"/>
       <c r="DB2" s="63"/>
@@ -2275,14 +2275,36 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="DG1:DG2"/>
-    <mergeCell ref="DH1:DH2"/>
-    <mergeCell ref="DA1:DA2"/>
-    <mergeCell ref="DB1:DB2"/>
-    <mergeCell ref="DC1:DC2"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="CX1:CZ1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
@@ -2295,36 +2317,14 @@
     <mergeCell ref="CO1:CQ1"/>
     <mergeCell ref="CR1:CT1"/>
     <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="DG1:DG2"/>
+    <mergeCell ref="DH1:DH2"/>
+    <mergeCell ref="DA1:DA2"/>
+    <mergeCell ref="DB1:DB2"/>
+    <mergeCell ref="DC1:DC2"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0629_reportData.xlsx
+++ b/SPPSApi/Doc/Template/FS0629_reportData.xlsx
@@ -203,10 +203,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>包装工厂</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>对象年月</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -406,6 +402,10 @@
   <si>
     <t>发注工场</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工场</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1">
       <c r="A2" s="44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="46"/>
@@ -1465,10 +1465,10 @@
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="39.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3" s="61" t="s">
         <v>0</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.5" thickBot="1">
       <c r="A6" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="47"/>
@@ -1574,17 +1574,17 @@
     </row>
     <row r="7" spans="1:20" ht="30.5" customHeight="1">
       <c r="A7" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="56" t="s">
         <v>79</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>80</v>
       </c>
       <c r="F7" s="57"/>
       <c r="G7" s="41" t="s">
@@ -1735,7 +1735,7 @@
   <dimension ref="A1:DH2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="DG1" sqref="DG1:DG1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1761,216 +1761,216 @@
   <sheetData>
     <row r="1" spans="1:112">
       <c r="A1" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="C1" s="63" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="63" t="s">
-        <v>28</v>
       </c>
       <c r="D1" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="G1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="H1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="I1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="J1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="K1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="L1" s="64" t="s">
         <v>35</v>
-      </c>
-      <c r="L1" s="64" t="s">
-        <v>36</v>
       </c>
       <c r="M1" s="64"/>
       <c r="N1" s="64"/>
       <c r="O1" s="64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="64"/>
       <c r="Q1" s="64"/>
       <c r="R1" s="64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S1" s="64"/>
       <c r="T1" s="64"/>
       <c r="U1" s="64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V1" s="64"/>
       <c r="W1" s="64"/>
       <c r="X1" s="64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y1" s="64"/>
       <c r="Z1" s="64"/>
       <c r="AA1" s="64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="64"/>
       <c r="AC1" s="64"/>
       <c r="AD1" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE1" s="64"/>
       <c r="AF1" s="64"/>
       <c r="AG1" s="64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AH1" s="64"/>
       <c r="AI1" s="64"/>
       <c r="AJ1" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AK1" s="64"/>
       <c r="AL1" s="64"/>
       <c r="AM1" s="64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN1" s="64"/>
       <c r="AO1" s="64"/>
       <c r="AP1" s="64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AQ1" s="64"/>
       <c r="AR1" s="64"/>
       <c r="AS1" s="64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT1" s="64"/>
       <c r="AU1" s="64"/>
       <c r="AV1" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="64"/>
       <c r="AX1" s="64"/>
       <c r="AY1" s="64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AZ1" s="64"/>
       <c r="BA1" s="64"/>
       <c r="BB1" s="64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BC1" s="64"/>
       <c r="BD1" s="64"/>
       <c r="BE1" s="64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BF1" s="64"/>
       <c r="BG1" s="64"/>
       <c r="BH1" s="64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BI1" s="64"/>
       <c r="BJ1" s="64"/>
       <c r="BK1" s="64" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BL1" s="64"/>
       <c r="BM1" s="64"/>
       <c r="BN1" s="64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BO1" s="64"/>
       <c r="BP1" s="64"/>
       <c r="BQ1" s="64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BR1" s="64"/>
       <c r="BS1" s="64"/>
       <c r="BT1" s="64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BU1" s="64"/>
       <c r="BV1" s="64"/>
       <c r="BW1" s="64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BX1" s="64"/>
       <c r="BY1" s="64"/>
       <c r="BZ1" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CA1" s="64"/>
       <c r="CB1" s="64"/>
       <c r="CC1" s="64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="CD1" s="64"/>
       <c r="CE1" s="64"/>
       <c r="CF1" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="CG1" s="64"/>
       <c r="CH1" s="64"/>
       <c r="CI1" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="CJ1" s="64"/>
       <c r="CK1" s="64"/>
       <c r="CL1" s="64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CM1" s="64"/>
       <c r="CN1" s="64"/>
       <c r="CO1" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CP1" s="64"/>
       <c r="CQ1" s="64"/>
       <c r="CR1" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CS1" s="64"/>
       <c r="CT1" s="64"/>
       <c r="CU1" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="CV1" s="64"/>
       <c r="CW1" s="64"/>
       <c r="CX1" s="64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CY1" s="64"/>
       <c r="CZ1" s="64"/>
       <c r="DA1" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="DB1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="DB1" s="63" t="s">
+      <c r="DC1" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="DC1" s="63" t="s">
+      <c r="DD1" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="DD1" s="63" t="s">
+      <c r="DE1" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="DE1" s="63" t="s">
+      <c r="DF1" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="DF1" s="63" t="s">
+      <c r="DG1" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="DG1" s="63" t="s">
+      <c r="DH1" s="63" t="s">
         <v>73</v>
-      </c>
-      <c r="DH1" s="63" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:112">
@@ -1986,283 +1986,283 @@
       <c r="J2" s="63"/>
       <c r="K2" s="63"/>
       <c r="L2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AC2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AF2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AI2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AK2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AM2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AN2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AP2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AQ2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AS2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AT2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AU2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AV2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AW2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AX2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AY2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BA2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BB2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BC2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BD2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BE2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BF2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BG2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BH2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BI2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BJ2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BK2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BL2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BM2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BN2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BO2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BP2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BQ2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BR2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BS2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BT2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BU2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BV2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BW2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BX2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BY2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BZ2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CA2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CB2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CC2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CD2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CE2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CF2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CG2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CH2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CI2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CJ2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CK2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CL2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CM2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CN2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CO2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CP2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CQ2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CR2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CS2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CT2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CU2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CV2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CW2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CX2" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CY2" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CZ2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="DA2" s="63"/>
       <c r="DB2" s="63"/>
@@ -2275,12 +2275,38 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="DG1:DG2"/>
+    <mergeCell ref="DH1:DH2"/>
+    <mergeCell ref="DA1:DA2"/>
+    <mergeCell ref="DB1:DB2"/>
+    <mergeCell ref="DC1:DC2"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2293,38 +2319,12 @@
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="DG1:DG2"/>
-    <mergeCell ref="DH1:DH2"/>
-    <mergeCell ref="DA1:DA2"/>
-    <mergeCell ref="DB1:DB2"/>
-    <mergeCell ref="DC1:DC2"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0629_reportData.xlsx
+++ b/SPPSApi/Doc/Template/FS0629_reportData.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">data!$A$1:$R$13</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -412,7 +412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -500,6 +500,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -875,7 +876,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -934,9 +935,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -948,9 +946,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,14 +984,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1413,10 +1417,10 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2" customWidth="1"/>
     <col min="2" max="4" width="5.83203125" style="2" customWidth="1"/>
@@ -1425,56 +1429,56 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="48"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="53"/>
+    <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="44"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="52"/>
     </row>
-    <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="7"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="8" customFormat="1" ht="39.75" customHeight="1">
+    <row r="3" spans="1:20" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1495,10 +1499,10 @@
       <c r="K3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="N3" s="10" t="s">
@@ -1510,30 +1514,30 @@
       <c r="P3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="8" customFormat="1" ht="33.5" customHeight="1">
-      <c r="A4" s="35"/>
+    <row r="4" spans="1:20" s="8" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
       <c r="B4" s="22"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="30"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="18"/>
       <c r="O4" s="19"/>
       <c r="P4" s="20"/>
-      <c r="Q4" s="32"/>
+      <c r="Q4" s="28"/>
     </row>
-    <row r="5" spans="1:20" ht="21.75" customHeight="1">
+    <row r="5" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -1551,12 +1555,12 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:20" ht="15.5" thickBot="1">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1572,136 +1576,136 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:20" ht="30.5" customHeight="1">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:20" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="57"/>
-      <c r="G7" s="41" t="s">
+      <c r="F7" s="56"/>
+      <c r="G7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="42" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="56" t="s">
+      <c r="N7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="43" t="s">
+      <c r="O7" s="58"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="34" customHeight="1" thickBot="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="26"/>
+    <row r="8" spans="1:20" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="47"/>
     </row>
-    <row r="9" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="10" spans="1:20" ht="22.5" customHeight="1">
+    <row r="9" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="12" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="13" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="14" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="15" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="16" spans="1:20" ht="22.5" customHeight="1"/>
-    <row r="17" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="18" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="19" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="20" spans="2:7" ht="22.5" customHeight="1">
+    <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
     </row>
-    <row r="21" spans="2:7" ht="22.5" customHeight="1">
+    <row r="21" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="23" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="24" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="25" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="26" spans="2:7" ht="22.5" customHeight="1">
+    <row r="22" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
     </row>
-    <row r="27" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="28" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="29" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="30" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="31" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="32" spans="2:7" ht="22.5" customHeight="1"/>
-    <row r="33" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="34" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="35" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="36" spans="2:17" ht="22.5" customHeight="1">
+    <row r="27" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="2:17" ht="22.5" customHeight="1">
+    <row r="37" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16"/>
     </row>
-    <row r="38" spans="2:17" ht="22.5" customHeight="1">
+    <row r="38" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="2:17" ht="22.5" customHeight="1">
+    <row r="39" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="41" spans="2:17" ht="22.5" customHeight="1">
+    <row r="40" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="43" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="44" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="45" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="46" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="47" spans="2:17" ht="22.5" customHeight="1"/>
-    <row r="48" spans="2:17" ht="22.5" customHeight="1">
+    <row r="42" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q48" s="9"/>
     </row>
-    <row r="49" spans="16:17" ht="22.5" customHeight="1">
+    <row r="49" spans="16:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q49" s="9"/>
     </row>
-    <row r="50" spans="16:17" ht="22.5" customHeight="1">
+    <row r="50" spans="16:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q50" s="9"/>
     </row>
-    <row r="62" spans="16:17">
+    <row r="62" spans="16:17" x14ac:dyDescent="0.25">
       <c r="P62" s="9" t="s">
         <v>12</v>
       </c>
@@ -1738,551 +1742,573 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="38"/>
-    <col min="4" max="4" width="25.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="38" customWidth="1"/>
-    <col min="6" max="7" width="8.6640625" style="38"/>
-    <col min="8" max="8" width="10.9140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="12.4140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="38" customWidth="1"/>
-    <col min="11" max="104" width="8.6640625" style="38"/>
-    <col min="105" max="107" width="10.4140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="8.6640625" style="38"/>
-    <col min="109" max="109" width="17.6640625" style="38" customWidth="1"/>
-    <col min="110" max="110" width="10.6640625" style="38" customWidth="1"/>
-    <col min="111" max="111" width="16.75" style="38" customWidth="1"/>
-    <col min="112" max="112" width="13.83203125" style="38" customWidth="1"/>
-    <col min="113" max="16384" width="8.6640625" style="36"/>
+    <col min="1" max="1" width="13.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="34"/>
+    <col min="4" max="4" width="25.6640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="34" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="34"/>
+    <col min="8" max="8" width="10.9140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="12.4140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="34" customWidth="1"/>
+    <col min="11" max="104" width="8.6640625" style="34"/>
+    <col min="105" max="107" width="10.4140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="8.6640625" style="34"/>
+    <col min="109" max="109" width="17.6640625" style="34" customWidth="1"/>
+    <col min="110" max="110" width="10.6640625" style="34" customWidth="1"/>
+    <col min="111" max="111" width="16.75" style="34" customWidth="1"/>
+    <col min="112" max="112" width="13.83203125" style="34" customWidth="1"/>
+    <col min="113" max="16384" width="8.6640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64" t="s">
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64" t="s">
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64" t="s">
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64" t="s">
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64" t="s">
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64" t="s">
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64" t="s">
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64" t="s">
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64" t="s">
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64" t="s">
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64" t="s">
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="64" t="s">
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="64"/>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="64" t="s">
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="64"/>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="64" t="s">
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" s="64"/>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="64" t="s">
+      <c r="BC1" s="63"/>
+      <c r="BD1" s="63"/>
+      <c r="BE1" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" s="64"/>
-      <c r="BG1" s="64"/>
-      <c r="BH1" s="64" t="s">
+      <c r="BF1" s="63"/>
+      <c r="BG1" s="63"/>
+      <c r="BH1" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="64"/>
-      <c r="BJ1" s="64"/>
-      <c r="BK1" s="64" t="s">
+      <c r="BI1" s="63"/>
+      <c r="BJ1" s="63"/>
+      <c r="BK1" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="BL1" s="64"/>
-      <c r="BM1" s="64"/>
-      <c r="BN1" s="64" t="s">
+      <c r="BL1" s="63"/>
+      <c r="BM1" s="63"/>
+      <c r="BN1" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="BO1" s="64"/>
-      <c r="BP1" s="64"/>
-      <c r="BQ1" s="64" t="s">
+      <c r="BO1" s="63"/>
+      <c r="BP1" s="63"/>
+      <c r="BQ1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="BR1" s="64"/>
-      <c r="BS1" s="64"/>
-      <c r="BT1" s="64" t="s">
+      <c r="BR1" s="63"/>
+      <c r="BS1" s="63"/>
+      <c r="BT1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="BU1" s="64"/>
-      <c r="BV1" s="64"/>
-      <c r="BW1" s="64" t="s">
+      <c r="BU1" s="63"/>
+      <c r="BV1" s="63"/>
+      <c r="BW1" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="BX1" s="64"/>
-      <c r="BY1" s="64"/>
-      <c r="BZ1" s="64" t="s">
+      <c r="BX1" s="63"/>
+      <c r="BY1" s="63"/>
+      <c r="BZ1" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="CA1" s="64"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64" t="s">
+      <c r="CA1" s="63"/>
+      <c r="CB1" s="63"/>
+      <c r="CC1" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="CD1" s="64"/>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64" t="s">
+      <c r="CD1" s="63"/>
+      <c r="CE1" s="63"/>
+      <c r="CF1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64" t="s">
+      <c r="CG1" s="63"/>
+      <c r="CH1" s="63"/>
+      <c r="CI1" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="CJ1" s="64"/>
-      <c r="CK1" s="64"/>
-      <c r="CL1" s="64" t="s">
+      <c r="CJ1" s="63"/>
+      <c r="CK1" s="63"/>
+      <c r="CL1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="CM1" s="64"/>
-      <c r="CN1" s="64"/>
-      <c r="CO1" s="64" t="s">
+      <c r="CM1" s="63"/>
+      <c r="CN1" s="63"/>
+      <c r="CO1" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="CP1" s="64"/>
-      <c r="CQ1" s="64"/>
-      <c r="CR1" s="64" t="s">
+      <c r="CP1" s="63"/>
+      <c r="CQ1" s="63"/>
+      <c r="CR1" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="CS1" s="64"/>
-      <c r="CT1" s="64"/>
-      <c r="CU1" s="64" t="s">
+      <c r="CS1" s="63"/>
+      <c r="CT1" s="63"/>
+      <c r="CU1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="CV1" s="64"/>
-      <c r="CW1" s="64"/>
-      <c r="CX1" s="64" t="s">
+      <c r="CV1" s="63"/>
+      <c r="CW1" s="63"/>
+      <c r="CX1" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="CY1" s="64"/>
-      <c r="CZ1" s="64"/>
-      <c r="DA1" s="63" t="s">
+      <c r="CY1" s="63"/>
+      <c r="CZ1" s="63"/>
+      <c r="DA1" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="DB1" s="63" t="s">
+      <c r="DB1" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="DC1" s="63" t="s">
+      <c r="DC1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="DD1" s="63" t="s">
+      <c r="DD1" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="DE1" s="63" t="s">
+      <c r="DE1" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="DF1" s="63" t="s">
+      <c r="DF1" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="DG1" s="63" t="s">
+      <c r="DG1" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="DH1" s="63" t="s">
+      <c r="DH1" s="62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:112">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AV2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AW2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BC2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BF2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BG2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BH2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BL2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BM2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BN2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BO2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BP2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BQ2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BR2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BS2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BT2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BU2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BV2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BW2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="BY2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="BZ2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CA2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CB2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="CC2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CD2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CE2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="CF2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CH2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="CI2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CJ2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CK2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="CL2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CM2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CN2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="CO2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CP2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CQ2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="CR2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CS2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="CU2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CV2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CW2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="CX2" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="CY2" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="CZ2" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="DA2" s="63"/>
-      <c r="DB2" s="63"/>
-      <c r="DC2" s="63"/>
-      <c r="DD2" s="63"/>
-      <c r="DE2" s="63"/>
-      <c r="DF2" s="63"/>
-      <c r="DG2" s="63"/>
-      <c r="DH2" s="63"/>
+    <row r="2" spans="1:112" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="AX2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BE2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BJ2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BM2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BN2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BP2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BQ2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BR2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BT2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BU2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BV2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BW2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CB2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CC2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CD2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CE2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CF2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CH2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CI2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CJ2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CK2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CL2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CM2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CN2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CO2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CP2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CQ2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CR2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CS2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CT2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CU2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CV2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CW2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="CX2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="CY2" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="CZ2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="DA2" s="62"/>
+      <c r="DB2" s="62"/>
+      <c r="DC2" s="62"/>
+      <c r="DD2" s="62"/>
+      <c r="DE2" s="62"/>
+      <c r="DF2" s="62"/>
+      <c r="DG2" s="62"/>
+      <c r="DH2" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="DG1:DG2"/>
-    <mergeCell ref="DH1:DH2"/>
-    <mergeCell ref="DA1:DA2"/>
-    <mergeCell ref="DB1:DB2"/>
-    <mergeCell ref="DC1:DC2"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="CX1:CZ1"/>
     <mergeCell ref="BQ1:BS1"/>
     <mergeCell ref="BT1:BV1"/>
@@ -2295,36 +2321,14 @@
     <mergeCell ref="CO1:CQ1"/>
     <mergeCell ref="CR1:CT1"/>
     <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="DG1:DG2"/>
+    <mergeCell ref="DH1:DH2"/>
+    <mergeCell ref="DA1:DA2"/>
+    <mergeCell ref="DB1:DB2"/>
+    <mergeCell ref="DC1:DC2"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPPSApi/Doc/Template/FS0629_reportData.xlsx
+++ b/SPPSApi/Doc/Template/FS0629_reportData.xlsx
@@ -13,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">data!$A$1:$R$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="84">
   <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,11 +108,6 @@
   <si>
     <t>欠品
 PCS</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧型
-是否</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -876,7 +871,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1018,9 +1013,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,7 +1409,7 @@
   <dimension ref="A1:T62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,21 +1422,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="A1" s="60"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
       <c r="I1" s="44"/>
       <c r="P1" s="51"/>
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:20" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="42"/>
@@ -1453,31 +1445,31 @@
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="25" t="s">
         <v>22</v>
-      </c>
-      <c r="Q2" s="25" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="8" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="26" t="s">
         <v>10</v>
@@ -1515,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="Q3" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="8" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1549,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="43"/>
@@ -1578,17 +1570,17 @@
     </row>
     <row r="7" spans="1:20" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" s="53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="55" t="s">
         <v>78</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>79</v>
       </c>
       <c r="F7" s="56"/>
       <c r="G7" s="37" t="s">
@@ -1597,24 +1589,22 @@
       <c r="H7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="57" t="s">
-        <v>19</v>
-      </c>
+      <c r="J7" s="57"/>
       <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="58"/>
+      <c r="O7" s="57"/>
       <c r="P7" s="56"/>
       <c r="Q7" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1626,8 +1616,8 @@
       <c r="F8" s="49"/>
       <c r="G8" s="46"/>
       <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="50"/>
       <c r="L8" s="49"/>
       <c r="M8" s="46"/>
@@ -1714,16 +1704,16 @@
   <mergeCells count="12">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="J8:L8"/>
     <mergeCell ref="N8:P8"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="J7:L7"/>
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1764,527 +1754,553 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="62" t="s">
+      <c r="A1" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="D1" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="K1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="L1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63" t="s">
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63" t="s">
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63" t="s">
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63" t="s">
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63" t="s">
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63" t="s">
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63" t="s">
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63" t="s">
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63" t="s">
+      <c r="AT1" s="62"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AT1" s="63"/>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63" t="s">
+      <c r="AW1" s="62"/>
+      <c r="AX1" s="62"/>
+      <c r="AY1" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="63" t="s">
+      <c r="AZ1" s="62"/>
+      <c r="BA1" s="62"/>
+      <c r="BB1" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" s="63"/>
-      <c r="BA1" s="63"/>
-      <c r="BB1" s="63" t="s">
+      <c r="BC1" s="62"/>
+      <c r="BD1" s="62"/>
+      <c r="BE1" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="BC1" s="63"/>
-      <c r="BD1" s="63"/>
-      <c r="BE1" s="63" t="s">
+      <c r="BF1" s="62"/>
+      <c r="BG1" s="62"/>
+      <c r="BH1" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" s="63"/>
-      <c r="BG1" s="63"/>
-      <c r="BH1" s="63" t="s">
+      <c r="BI1" s="62"/>
+      <c r="BJ1" s="62"/>
+      <c r="BK1" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="BI1" s="63"/>
-      <c r="BJ1" s="63"/>
-      <c r="BK1" s="63" t="s">
+      <c r="BL1" s="62"/>
+      <c r="BM1" s="62"/>
+      <c r="BN1" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="BL1" s="63"/>
-      <c r="BM1" s="63"/>
-      <c r="BN1" s="63" t="s">
+      <c r="BO1" s="62"/>
+      <c r="BP1" s="62"/>
+      <c r="BQ1" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="BO1" s="63"/>
-      <c r="BP1" s="63"/>
-      <c r="BQ1" s="63" t="s">
+      <c r="BR1" s="62"/>
+      <c r="BS1" s="62"/>
+      <c r="BT1" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="BR1" s="63"/>
-      <c r="BS1" s="63"/>
-      <c r="BT1" s="63" t="s">
+      <c r="BU1" s="62"/>
+      <c r="BV1" s="62"/>
+      <c r="BW1" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="BU1" s="63"/>
-      <c r="BV1" s="63"/>
-      <c r="BW1" s="63" t="s">
+      <c r="BX1" s="62"/>
+      <c r="BY1" s="62"/>
+      <c r="BZ1" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="BX1" s="63"/>
-      <c r="BY1" s="63"/>
-      <c r="BZ1" s="63" t="s">
+      <c r="CA1" s="62"/>
+      <c r="CB1" s="62"/>
+      <c r="CC1" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="CA1" s="63"/>
-      <c r="CB1" s="63"/>
-      <c r="CC1" s="63" t="s">
+      <c r="CD1" s="62"/>
+      <c r="CE1" s="62"/>
+      <c r="CF1" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="CD1" s="63"/>
-      <c r="CE1" s="63"/>
-      <c r="CF1" s="63" t="s">
+      <c r="CG1" s="62"/>
+      <c r="CH1" s="62"/>
+      <c r="CI1" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="CG1" s="63"/>
-      <c r="CH1" s="63"/>
-      <c r="CI1" s="63" t="s">
+      <c r="CJ1" s="62"/>
+      <c r="CK1" s="62"/>
+      <c r="CL1" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="CJ1" s="63"/>
-      <c r="CK1" s="63"/>
-      <c r="CL1" s="63" t="s">
+      <c r="CM1" s="62"/>
+      <c r="CN1" s="62"/>
+      <c r="CO1" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="CM1" s="63"/>
-      <c r="CN1" s="63"/>
-      <c r="CO1" s="63" t="s">
+      <c r="CP1" s="62"/>
+      <c r="CQ1" s="62"/>
+      <c r="CR1" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="CP1" s="63"/>
-      <c r="CQ1" s="63"/>
-      <c r="CR1" s="63" t="s">
+      <c r="CS1" s="62"/>
+      <c r="CT1" s="62"/>
+      <c r="CU1" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="CS1" s="63"/>
-      <c r="CT1" s="63"/>
-      <c r="CU1" s="63" t="s">
+      <c r="CV1" s="62"/>
+      <c r="CW1" s="62"/>
+      <c r="CX1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="CV1" s="63"/>
-      <c r="CW1" s="63"/>
-      <c r="CX1" s="63" t="s">
+      <c r="CY1" s="62"/>
+      <c r="CZ1" s="62"/>
+      <c r="DA1" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="CY1" s="63"/>
-      <c r="CZ1" s="63"/>
-      <c r="DA1" s="62" t="s">
+      <c r="DB1" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="DB1" s="62" t="s">
+      <c r="DC1" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="DC1" s="62" t="s">
+      <c r="DD1" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="DD1" s="62" t="s">
+      <c r="DE1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="DE1" s="62" t="s">
+      <c r="DF1" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="DF1" s="62" t="s">
+      <c r="DG1" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="DG1" s="62" t="s">
+      <c r="DH1" s="61" t="s">
         <v>72</v>
-      </c>
-      <c r="DH1" s="62" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:112" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
       <c r="L2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AB2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AE2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AG2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AH2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AI2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AJ2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AL2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AM2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AN2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AO2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AQ2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AR2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AS2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AT2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AV2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AX2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AZ2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BA2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BB2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BC2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BD2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BE2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BF2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BG2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BH2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BI2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BJ2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BK2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BL2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BM2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BN2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BO2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BP2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BQ2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BR2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BS2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BT2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BU2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BV2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BW2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BX2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BY2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BZ2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CA2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CB2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CC2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CD2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CE2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CF2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CG2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CH2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CI2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CJ2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CK2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CL2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CM2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CN2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CO2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CP2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CQ2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CR2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CS2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CT2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CU2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CV2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CW2" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CX2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CY2" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CZ2" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="DA2" s="62"/>
-      <c r="DB2" s="62"/>
-      <c r="DC2" s="62"/>
-      <c r="DD2" s="62"/>
-      <c r="DE2" s="62"/>
-      <c r="DF2" s="62"/>
-      <c r="DG2" s="62"/>
-      <c r="DH2" s="62"/>
+        <v>75</v>
+      </c>
+      <c r="DA2" s="61"/>
+      <c r="DB2" s="61"/>
+      <c r="DC2" s="61"/>
+      <c r="DD2" s="61"/>
+      <c r="DE2" s="61"/>
+      <c r="DF2" s="61"/>
+      <c r="DG2" s="61"/>
+      <c r="DH2" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="DG1:DG2"/>
+    <mergeCell ref="DH1:DH2"/>
+    <mergeCell ref="DA1:DA2"/>
+    <mergeCell ref="DB1:DB2"/>
+    <mergeCell ref="DC1:DC2"/>
+    <mergeCell ref="DD1:DD2"/>
+    <mergeCell ref="DE1:DE2"/>
+    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="CX1:CZ1"/>
+    <mergeCell ref="BQ1:BS1"/>
+    <mergeCell ref="BT1:BV1"/>
+    <mergeCell ref="BW1:BY1"/>
+    <mergeCell ref="BZ1:CB1"/>
+    <mergeCell ref="CC1:CE1"/>
+    <mergeCell ref="CF1:CH1"/>
+    <mergeCell ref="CI1:CK1"/>
+    <mergeCell ref="CL1:CN1"/>
+    <mergeCell ref="CO1:CQ1"/>
+    <mergeCell ref="CR1:CT1"/>
+    <mergeCell ref="CU1:CW1"/>
+    <mergeCell ref="BN1:BP1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AJ1:AL1"/>
+    <mergeCell ref="AM1:AO1"/>
+    <mergeCell ref="AP1:AR1"/>
+    <mergeCell ref="AS1:AU1"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AY1:BA1"/>
+    <mergeCell ref="BB1:BD1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BK1:BM1"/>
     <mergeCell ref="AD1:AF1"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
@@ -2297,38 +2313,12 @@
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="BN1:BP1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AJ1:AL1"/>
-    <mergeCell ref="AM1:AO1"/>
-    <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="AS1:AU1"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AY1:BA1"/>
-    <mergeCell ref="BB1:BD1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BK1:BM1"/>
-    <mergeCell ref="CX1:CZ1"/>
-    <mergeCell ref="BQ1:BS1"/>
-    <mergeCell ref="BT1:BV1"/>
-    <mergeCell ref="BW1:BY1"/>
-    <mergeCell ref="BZ1:CB1"/>
-    <mergeCell ref="CC1:CE1"/>
-    <mergeCell ref="CF1:CH1"/>
-    <mergeCell ref="CI1:CK1"/>
-    <mergeCell ref="CL1:CN1"/>
-    <mergeCell ref="CO1:CQ1"/>
-    <mergeCell ref="CR1:CT1"/>
-    <mergeCell ref="CU1:CW1"/>
-    <mergeCell ref="DG1:DG2"/>
-    <mergeCell ref="DH1:DH2"/>
-    <mergeCell ref="DA1:DA2"/>
-    <mergeCell ref="DB1:DB2"/>
-    <mergeCell ref="DC1:DC2"/>
-    <mergeCell ref="DD1:DD2"/>
-    <mergeCell ref="DE1:DE2"/>
-    <mergeCell ref="DF1:DF2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
